--- a/ebs_with_tracing/forms/app/cha_signal_reporting.xlsx
+++ b/ebs_with_tracing/forms/app/cha_signal_reporting.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\forms\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\config-covid\ebs_with_tracing\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -225,9 +225,6 @@
     <t>external_id</t>
   </si>
   <si>
-    <t>Muso ID</t>
-  </si>
-  <si>
     <t>required_message::en</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
   </si>
   <si>
     <t>required_message::sh</t>
+  </si>
+  <si>
+    <t>LGH ID</t>
   </si>
 </sst>
 </file>
@@ -833,7 +833,7 @@
   <dimension ref="A1:AMN16"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -871,16 +871,16 @@
         <v>39</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H1" s="29" t="s">
         <v>5</v>
@@ -892,16 +892,16 @@
         <v>8</v>
       </c>
       <c r="K1" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="M1" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>68</v>
-      </c>
-      <c r="N1" s="29" t="s">
-        <v>69</v>
       </c>
       <c r="O1" s="29" t="s">
         <v>7</v>
@@ -913,19 +913,19 @@
         <v>41</v>
       </c>
       <c r="R1" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="S1" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="S1" s="29" t="s">
+      <c r="T1" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="T1" s="29" t="s">
+      <c r="U1" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="U1" s="29" t="s">
+      <c r="V1" s="30" t="s">
         <v>73</v>
-      </c>
-      <c r="V1" s="30" t="s">
-        <v>74</v>
       </c>
       <c r="AMF1" s="28"/>
       <c r="AMG1" s="28"/>
@@ -954,10 +954,10 @@
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
       <c r="H2" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" s="32"/>
       <c r="K2" s="32"/>
@@ -968,7 +968,7 @@
       <c r="P2" s="32"/>
       <c r="Q2" s="32"/>
       <c r="V2" s="33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AMF2" s="28"/>
       <c r="AMG2" s="28"/>
@@ -994,7 +994,7 @@
         <v>48</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25" t="s">
@@ -1029,7 +1029,7 @@
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
       <c r="H4" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="34"/>
@@ -1173,7 +1173,7 @@
       <c r="F8" s="28"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I8" s="28"/>
       <c r="J8" s="28"/>
@@ -1216,7 +1216,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="34"/>
@@ -1257,7 +1257,7 @@
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
       <c r="H10" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="34"/>
@@ -1300,7 +1300,7 @@
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
       <c r="H11" s="25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="34"/>
@@ -1334,10 +1334,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E12" s="34"/>
       <c r="F12" s="34"/>
@@ -1499,8 +1499,8 @@
   </sheetPr>
   <dimension ref="A1:AA975"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1523,7 +1523,7 @@
         <v>39</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
